--- a/tests/data/xls/E_EN_T2C_authoring.xlsx
+++ b/tests/data/xls/E_EN_T2C_authoring.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D6DAB8-FCE0-4156-AF95-D1E570F37FFF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1B4E2-9500-4D01-B1E2-62526485EB93}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="3744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,9 +250,6 @@
     <t xml:space="preserve"> @LIMB</t>
   </si>
   <si>
-    <t>#ACHE &amp;&amp; @LIMB:hand</t>
-  </si>
-  <si>
     <t>Ache of your hand can be an accident</t>
   </si>
   <si>
@@ -272,12 +269,6 @@
   </si>
   <si>
     <t>CT; catscan</t>
-  </si>
-  <si>
-    <t>#WHAT_IS &amp;&amp; @SUBLECT:CT</t>
-  </si>
-  <si>
-    <t>#WHAT_IS &amp;&amp; @SUBLECT:&lt;x&gt;</t>
   </si>
   <si>
     <t>1+1 is 2 %%:b_question</t>
@@ -652,9 +643,6 @@
     <t xml:space="preserve">Two people will join me </t>
   </si>
   <si>
-    <t>How many people will go wit you?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> $co_traveler will go with you.</t>
   </si>
   <si>
@@ -704,9 +692,6 @@
   </si>
   <si>
     <t>X-rays make up X-radiation, a form of electromagnetic radiation.</t>
-  </si>
-  <si>
-    <t>#WHAT_IS &amp;&amp; @SUBJECT:XRAY</t>
   </si>
   <si>
     <t>XRAY; Rontgen</t>
@@ -770,12 +755,6 @@
   </si>
   <si>
     <t xml:space="preserve">//  in this document we  guide the reader through the format. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> true &amp;&amp; @LIMB:hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> true &amp;&amp; @LIMB:leg</t>
   </si>
   <si>
     <t>//This 'true &amp;&amp; ' tweek is added only temporarly overcome the bug of detecting a condition,</t>
@@ -879,6 +858,27 @@
   </si>
   <si>
     <t xml:space="preserve">// The second column is dedicated to output. It contains a plain text or an optional HTML markup. Default client (clientv2) supports HTML formát. </t>
+  </si>
+  <si>
+    <t>How many people will go with you?</t>
+  </si>
+  <si>
+    <t>#WHAT_IS and @SUBLECT:CT</t>
+  </si>
+  <si>
+    <t>#WHAT_IS and @SUBJECT:XRAY</t>
+  </si>
+  <si>
+    <t>#WHAT_IS and @SUBLECT:&lt;x&gt;</t>
+  </si>
+  <si>
+    <t>#ACHE and @LIMB:hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @LIMB:hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @LIMB:leg</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:XFD179"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,7 +1384,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1425,25 +1425,25 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1475,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,7 +1523,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,22 +1536,22 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1559,7 +1559,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>38</v>
@@ -1571,15 +1571,15 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1607,12 +1607,12 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1730,17 +1730,17 @@
     </row>
     <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1748,42 +1748,42 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,7 +1850,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,24 +1881,24 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -1931,11 +1931,11 @@
         <v>44</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>45</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -1989,24 +1989,24 @@
         <v>45</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
         <v>53</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -2034,17 +2034,17 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2057,7 +2057,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2086,17 +2086,17 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -2104,75 +2104,67 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-    </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>164</v>
+      <c r="A139" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>166</v>
-      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -2180,7 +2172,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -2195,22 +2187,22 @@
       <c r="D152" s="8"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="8"/>
+      <c r="A153" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -2218,354 +2210,362 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="8"/>
+      <c r="A157" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
+      <c r="A159" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>155</v>
-      </c>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>153</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="14" t="s">
-        <v>129</v>
-      </c>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B176" s="14"/>
-    </row>
-    <row r="177" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
+      <c r="A176" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" s="14"/>
+    </row>
+    <row r="178" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
+      <c r="A190" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="14" t="s">
-        <v>180</v>
-      </c>
+      <c r="A191" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="A193" s="14"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
+      <c r="A196" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="A197" s="13"/>
+      <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
-      <c r="B198" s="13"/>
+      <c r="A198" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="14" t="s">
-        <v>140</v>
-      </c>
+      <c r="A199" s="13"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="14"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="14"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="14" t="s">
-        <v>174</v>
-      </c>
+      <c r="A206" s="14"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="14"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="A210" s="14"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-    </row>
-    <row r="215" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-    </row>
+    <row r="215" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+    </row>
+    <row r="216" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="217" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B217" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="14"/>
+    <row r="218" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
